--- a/data/01_soybeans.xlsx
+++ b/data/01_soybeans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmbastos/Desktop/Google Drive/1a - UGA 2021/2-Teaching/2023 Spring Advanced Precision Ag/2023_AdvPA/03-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/mm32834_uga_edu/Documents/Desktop/CRSS 8030 Data Science/08_iteration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6770C1C8-4554-F546-A7E5-456DB1EAFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6770C1C8-4554-F546-A7E5-456DB1EAFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B27B96-965F-4333-A763-1E5BA7517A8E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19020" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -397,13 +397,13 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>105</v>
       </c>
@@ -455,7 +455,7 @@
         <v>0.81400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>203</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>305</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1.1550000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>401</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1.1550000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.66499999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>207</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>306</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>402</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>106</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>202</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>307</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>404</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1.016</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>201</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>304</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1.3920000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>407</v>
       </c>
